--- a/MathQuestions.xlsx
+++ b/MathQuestions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pete\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pete\Documents\GitHub\tsrqpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>level</t>
   </si>
@@ -74,19 +74,208 @@
     <t>Which is the better buy and by how much per carton? Five cartons of eggs for $21.05, or 7 cartons of eggs for $30.10?</t>
   </si>
   <si>
-    <t>cartons</t>
-  </si>
-  <si>
     <t>Bill bought one fifth of all the apples on a shelf. If he bought 8 apples, how many were there on the shelf?</t>
   </si>
   <si>
-    <t>apples</t>
-  </si>
-  <si>
     <t>You have to put ten shirts into a draw, some red some white and some black. How many black shirts do you have to put in the draw to make sure you have a better chance of pulling one out than any of the other colours?</t>
   </si>
   <si>
-    <t>years old</t>
+    <t>There are 10 boys and 10 girls in the year six maths class. On a test the boys’ average score was 70 and the girls’ average score was 80. What was the average score for the class?</t>
+  </si>
+  <si>
+    <t>Ben’s mother cut up a block of chocolate into equal sized pieces. She cut it so that Ben and his seven friends each got the same amount of chocolate, and there were 2 pieces left over. If each of the children got 4 pieces, how many pieces did she cut the chocolate bar into?</t>
+  </si>
+  <si>
+    <t>How long would it take an ant that walks at an average speed of 2cm per minute to walk around a square of side length 5cm?</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>The area of a square is 2500 cm2 . If the sides of the square are reduced to one fifth their size, what is the area of the new square?</t>
+  </si>
+  <si>
+    <t>cm2</t>
+  </si>
+  <si>
+    <t>A movie projector blows the picture on a screen up to one hundred times its original size. What area would a triangle of base length 2 cm and height 5 cm have on the projector screen?</t>
+  </si>
+  <si>
+    <t>Julia was performing in a ballet and needed to buy a tutu, pointe shoes and white tights. If the tutu is $150, the shoes are $85, and the tights are $12, how much did she spend in total on her costume?</t>
+  </si>
+  <si>
+    <t>Of all the world’s rivers, the Amazon in South America and the Nile in Africa are the two longest. The Amazon is 6437 kilometres in length and the Nile is 233 kilometres longer than the Amazon. How long is the Nile River?</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Hayden received a box of 36 chocolates. He ate 3 on Monday, 11 on Tuesday and gave 7 away on Wednesday. How many did he have left?</t>
+  </si>
+  <si>
+    <t>A beetle has fallen into a hole that is 15 metres deep. It is able to climb a distance of 3 metres during the day but at night the beetle is tired and must rest. However, during the night it slides back 1 metre. How many days will it take the beetle to reach the top of the hole to freedom?</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>Chris is buying some generators. The generators cost $12 000 each and she needs 11 of them. How much will they cost her?</t>
+  </si>
+  <si>
+    <t>Shea has booked a beach house for a week over the summer period for a group of 12 friends. The house costs $1344 for the week. If all 12 people stayed for 7 nights, how much will the house cost each person per night?</t>
+  </si>
+  <si>
+    <t>At a confectionary factory, a machine dispenses 760 lollies into 8 jars. Assuming that an equal number of lollies is dispensed into each jar, find the number in each jar.</t>
+  </si>
+  <si>
+    <t>James and Liz discovered that they had different answers to the same question, which was to calculate 6 + 6 ÷ 3. James thought the answer was 8. Liz thought the answer was 4. What is the correct answer?</t>
+  </si>
+  <si>
+    <t>In a class election with 3 candidates, the winner beat the other 2 candidates by 3 and 6 votes respectively. If 27 votes were cast, how many votes did the winner receive?</t>
+  </si>
+  <si>
+    <t>Two smugglers, Bill Bogus and Sally Seadog have set up signal lights that flash continuously across the ocean. Bill’s light flashes every 5 seconds and Sally’s light flashes every 4 seconds. If they both start together, how long will it take for both lights to flash again at the same time?</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>Arrange the digits 0, 2, 4, 5, and 8 to form the smallest possible 5-digit number. You must use each digit once and only once.</t>
+  </si>
+  <si>
+    <t>In a race, one dirt bike rider completes each lap in 40 seconds while another completes it in 60 seconds. How long after the start of the race will the two bikes pass the starting point together?</t>
+  </si>
+  <si>
+    <t>A school bus left Laurel High School with 31 students aboard. Thirteen of these passengers alighted at Hardy Railway Station. The bus collected 24 more students at Hardy High School and a further 11 students disembarked at Laurel swimming pool. How many students were still on the bus?</t>
+  </si>
+  <si>
+    <t>At the milk processing plant, the engineer asked Farid how many cows he had to milk each day. Farid said he milked 192 cows because he obtained 1674 litres of milk each day and each cow produced 9 litres. Does Farid really milk 192 cows each day? If not, calculate how many cows he does milk.</t>
+  </si>
+  <si>
+    <t>What is the smallest number of pebbles greater than 10 for which grouping them in heaps of 7 leaves 1 extra and grouping them in heaps of 5 leaves 3 extra?</t>
+  </si>
+  <si>
+    <t>My mother is 4 times as old as I am. My sister is 75% of my age and 10% of my grandfather’s age. My father is 50, which is 2 years older than my mother. How old is my grandfather?</t>
+  </si>
+  <si>
+    <t>Two friends are on holiday; one decides to go skydiving and the other decides to go scuba diving. If the skydiving plane climbs to 4405m above sea level, and the scuba diver goes to 26m below sea level what is the distance between the two friends?</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>A rubber ball is dropped from a balcony which is 10m above the ground. The ball bounces to ¾ of its previous height after each bounce. Find the height of the ball after 3 bounces.</t>
+  </si>
+  <si>
+    <t>At Teagan’s farm, there are 24 horses. One sixth of them are brown and one quarter of them are black. If half of the remaining horses are white and the other half are grey, how many grey horses are there?</t>
+  </si>
+  <si>
+    <t>You have a plastic bag that contains 80 tennis balls. This bag of balls weighs 4kg. You add 10 more balls to your bag. How much does your bag of balls weigh now?</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>William owns a hairdressing salon and raises the price of haircuts from $26.50 to $29.95. By what percentage did he increase the price of haircuts? (answer to the nearest percent)</t>
+  </si>
+  <si>
+    <t>Stephanie bought some clothes from Target during their annual sale. She spent $79.00. She bought a skirt, a t-shirt and a pair of shorts. She paid $9 more for the t-shirt than for the shorts, and $7 more for the skirt than for the t-shirt. How much did the skirt cost her?</t>
+  </si>
+  <si>
+    <t>Convert 12 500 cm to km</t>
+  </si>
+  <si>
+    <t>A give-way sign is in the shape of a triangle with a base of 0.5 m. If the sign is 58 cm high, find the amount (in m2) of aluminium needed to make 20 such signs. Assume no waste.</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>A narrow cylindrical vase is 33 cm tall and has the volume of 2592 cm2. Find the radius of the base of the vase.</t>
+  </si>
+  <si>
+    <t>A square field is enclosed by a square fence, using 48 posts. The posts are 5m apart, with one at each corner of the field. Determine the area bounded by the fence.</t>
+  </si>
+  <si>
+    <t>Shannon is saving to buy a new computer, which costs $3299. So far, he has $449 in the bank and he wants to make regular deposits each month until he reaches his target of $3299. If he wants to buy the computer in 8 months’ time, how much does he need to save as a monthly deposit?</t>
+  </si>
+  <si>
+    <t>Michael checked his bank balance before going shopping. He had $450. He bought two suits, which cost the same and three pairs of shoes, each of which cost half the price of a suit. He also had lunch for $12 . when he checked his balance again he was $33 overdraw. What did one suit cost?</t>
+  </si>
+  <si>
+    <t>There are three swimmers in a 100 m freestyle race. Swimmer A is twice as likely to win as B and three times as likely to win as C. Find the probability that B or C wins</t>
+  </si>
+  <si>
+    <t>5/11</t>
+  </si>
+  <si>
+    <t>In a certain school band there are 6 girls and some boys. A student is selected at random from this group. Find the number of boys in the group if the possibility that a girl is selected is 1/4.</t>
+  </si>
+  <si>
+    <t>Determine the closest distance between Mars and Saturn if Mars is 2.279 x 10^8 km from the sun and Saturn is 1.472 x 10^9 km from the sun.</t>
+  </si>
+  <si>
+    <t>1.2441 x 10^9</t>
+  </si>
+  <si>
+    <t>The distance from the origin to the y-intercept of a linear graph is three times the distance from the origin to the x-intercept. The area of the triangle formed by the line and axes is 3.375 untis2. The line has a negative gradient and a negative y-intercept what is the equation of the line?</t>
+  </si>
+  <si>
+    <t>y = -3x - 4.5</t>
+  </si>
+  <si>
+    <t>The gear ratio for front and back sprockets of a bicycle is 10:3. If the front (large) sprocket has 40 teeth, how many teeth does the back sprocket have?</t>
+  </si>
+  <si>
+    <t>There are 12 people trying out for a badminton team. Five of them are girls what is the probability that a team chosen at random to play is a mixed doubles team?</t>
+  </si>
+  <si>
+    <t>35/66</t>
+  </si>
+  <si>
+    <t>At a fun park, the cost of a Rollercoaster ride and a Ferris wheel ride is $10. The cost of a Gravitron ride and Ferris wheel ride is $12. The cost of a Rollercoaster ride and Gavitron ride is $14. What is the cost of the Gravitron?</t>
+  </si>
+  <si>
+    <t>Laurie buys milk and bread for his family on the way home from school each day, paying with a $10 note. If he buys three cartons of milk and two loaves of bread, he receives 5 cents in change. If he buys two cartons of milk and one loaf of bread, he receives $4.15 in change. How much does the bread cost?</t>
+  </si>
+  <si>
+    <t>A newly discovered super colony of bees contains 2.05 x 10^8 bees. If 0.4% of these were estimated to be queen bees, how many queen bees live in the super colony?</t>
+  </si>
+  <si>
+    <t>If your body produces about 1.0 x 10^10 white blood cells each day, how many white blood cells does your body produce each hour?</t>
+  </si>
+  <si>
+    <t>4.167 x 10^8</t>
+  </si>
+  <si>
+    <t>A paddock contains some cockatoos (2-legged) and kangaroos (4-legged). The total number of animals is 21 and they have 68 legs in total. Using simultaneous equations, determine how many kangaroos there are in the paddock.</t>
+  </si>
+  <si>
+    <t>A witness described a getaway car having a Victorian number plate starting with TLK. The witness could not remember the three digits that follow but recalled that all three digits were different. How many cars in Victoria could have a registration plate with these letters and numbers?</t>
+  </si>
+  <si>
+    <t>Lisa drove to the city from her school. She covered a distance of 180 km in 2 hours. What is Lisa’s average speed?</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>The royalties of a Physics text book are going to the teachers that wrote chapters. Miss Alan wrote 4 chapters, Mrs Cato wrote 7 chapters, Ms Dawn wrote 6 chapters and Mr Bradley wrote 3 chapters. The expected amount shared is $28,000, if the royalty is split in ratio to the number of chapters, how much will Ms Dawn get?</t>
+  </si>
+  <si>
+    <t>Each floor of an office block has rectangular floors 32 m by 15 m. If the total office space is 3840 m^2 , how many floors in the building?</t>
+  </si>
+  <si>
+    <t>A car uses 7 litres of petrol to travel 100 km. How much petrol is needed to travel 325 km?</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>A 2.8 m ladder is to be laid against a wall so that the top of the ladder is 2 m up the wall. How far out from the base of the wall should the ladder be placed?</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -122,8 +311,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,160 +594,968 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.2</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>500</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>247</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>6670</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>132000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
         <v>12</v>
       </c>
-      <c r="C7">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27">
+        <v>20458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28">
+        <v>120</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>4431</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>4.21875</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>4.5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39">
+        <v>0.125</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>2.9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42">
+        <v>3600</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43">
+        <v>356.25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44">
+        <v>134.57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
         <v>70</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D52">
+        <v>2.35</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53">
+        <v>820000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>-2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57">
+        <v>90</v>
+      </c>
+      <c r="E57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58">
+        <v>8400</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60">
+        <v>22.75</v>
+      </c>
+      <c r="E60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61">
+        <v>1.96</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
